--- a/tspi/ciclo-1/logt2/20106381.xlsx
+++ b/tspi/ciclo-1/logt2/20106381.xlsx
@@ -8,14 +8,14 @@
     <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="400" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LOGT2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="logt2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Participé en el analisis de los requerimientos obtenidos en la reunión #1. Se documento una parte del diagrama de casos de uso, y falto documentar los escenarios.</t>
+  </si>
+  <si>
+    <t>Tuvimos una reunión de equipo para la asignación de las tareas del ciclo #1.</t>
+  </si>
+  <si>
+    <t>13,14,15</t>
+  </si>
+  <si>
+    <t>Participe en el diagrama de use case y escenario de atributo de calidad</t>
+  </si>
+  <si>
+    <t>Documentar los inconvenientes encontrados</t>
   </si>
 </sst>
 </file>
@@ -180,7 +192,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
@@ -220,6 +232,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -238,21 +253,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E9" activeCellId="0" pane="topLeft" sqref="E9"/>
+      <selection activeCell="E6" activeCellId="0" pane="topLeft" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="16.8235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.0156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="47.4117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="16.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.1254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="47.8901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="12.1725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="1">
@@ -267,7 +282,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="10" t="n">
-        <v>41905</v>
+        <v>41909</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -301,57 +316,128 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="13" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="E5" s="3" t="n">
+        <f aca="false">SUM(E7:E10)/60</f>
+        <v>5.33333333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="n">
         <v>41910</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D7" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <f aca="false">((HOUR(C6)-HOUR(B6))*60)+(MINUTE(C6)-MINUTE(B6))-D6</f>
+      <c r="E7" s="3" t="n">
+        <f aca="false">((HOUR(C7)-HOUR(B7))*60)+(MINUTE(C7)-MINUTE(B7))-D7</f>
         <v>90</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="F7" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.993055555555556</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" s="3" t="n">
-        <f aca="false">SUM(E6)/60</f>
-        <v>1.5</v>
+        <f aca="false">((HOUR(C8)-HOUR(B8))*60)+(MINUTE(C8)-MINUTE(B8))-D8</f>
+        <v>35</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="n">
+        <v>41913</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.927083333333333</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <f aca="false">((HOUR(C9)-HOUR(B9))*60)+(MINUTE(C9)-MINUTE(B9))-D9</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="n">
+        <v>41914</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <f aca="false">((HOUR(C10)-HOUR(B10))*60)+(MINUTE(C10)-MINUTE(B10))-D10</f>
+        <v>75</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="H10" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
